--- a/Testes.xlsx
+++ b/Testes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Red\Desktop\Investigacao2020\FeatureExtractionSystem\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E154CE7-2A6F-4317-A015-152D92B97891}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C98A9A02-5203-42F3-993B-93A84860F190}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{4C8C43D5-2640-471F-9E2F-B63DD0724C75}"/>
   </bookViews>
@@ -327,13 +327,13 @@
     <t>Vamos depois comparar cada bloco com o melhor e ver a media das diferenças da edit distance de cada frase</t>
   </si>
   <si>
-    <t>Se for menor que uma threshold (agora é 3) entao tiramos 10% ao bloco que tamos a comparar</t>
-  </si>
-  <si>
     <t>Se for maior, adicionamos 10% ao bloco que tamos a comparar e 10% ao bloco principal</t>
   </si>
   <si>
     <t>mc_ai.txt</t>
+  </si>
+  <si>
+    <t>Se for menor que uma threshold (sendo que a threshold é neste momento 30% da média do tamanho das frases do bloco principal) entao tiramos 10% ao bloco que tamos a comparar</t>
   </si>
 </sst>
 </file>
@@ -341,7 +341,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="169" formatCode="0.000%"/>
+    <numFmt numFmtId="164" formatCode="0.000%"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -427,7 +427,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -761,7 +761,7 @@
   <dimension ref="A1:W66"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="L40" sqref="L40"/>
+      <selection activeCell="F32" sqref="F32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1526,7 +1526,7 @@
         <v>19</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D22" s="12"/>
       <c r="F22" s="12"/>
@@ -1700,7 +1700,7 @@
       <c r="D31" s="6"/>
       <c r="E31"/>
       <c r="F31" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="G31" s="2"/>
       <c r="H31" s="2"/>
@@ -1721,7 +1721,7 @@
       </c>
       <c r="D32" s="6"/>
       <c r="F32" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G32" s="2"/>
       <c r="H32" s="2"/>

--- a/Testes.xlsx
+++ b/Testes.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Red\Desktop\Investigacao2020\FeatureExtractionSystem\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\rpp_mer\FeatureExtractionSystem\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C98A9A02-5203-42F3-993B-93A84860F190}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3D533B9-3B55-42A7-984C-5462BF917450}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{4C8C43D5-2640-471F-9E2F-B63DD0724C75}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{4C8C43D5-2640-471F-9E2F-B63DD0724C75}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -343,7 +343,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000%"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -365,8 +365,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF92D050"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -376,18 +383,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC00000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -406,6 +401,24 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD00202"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -430,26 +443,31 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="10" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="10" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="9" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="9" fontId="2" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="9" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="9" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="10" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="9" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="10" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="9" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="10" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="9" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="10" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="10" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFD00202"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -462,7 +480,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -760,38 +778,38 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CBC598BB-8A8F-49D8-9996-46F48A2FBFB9}">
   <dimension ref="A1:W66"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F32" sqref="F32"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="P14" sqref="P14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="22.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="28.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="27.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="27.33203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="5.7109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="25.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="5.6640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="25.88671875" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="14" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="21.7109375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="26.7109375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="5.7109375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="21.5703125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="21.6640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="26.6640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="5.6640625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="21.5546875" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="10" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="17.6640625" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="9" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="8.140625" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="7.140625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="12.88671875" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="8.109375" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="7.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -862,20 +880,20 @@
         <v>75</v>
       </c>
     </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="4">
         <v>0.52856999999999998</v>
       </c>
-      <c r="C2" s="8">
+      <c r="C2" s="15">
         <v>0.75</v>
       </c>
       <c r="D2" s="3">
         <v>0.3</v>
       </c>
-      <c r="E2" s="13">
+      <c r="E2" s="11">
         <v>1.2</v>
       </c>
       <c r="F2" s="3">
@@ -890,7 +908,7 @@
       <c r="I2" s="3">
         <v>0.3</v>
       </c>
-      <c r="J2" s="13">
+      <c r="J2" s="11">
         <v>1.24</v>
       </c>
       <c r="K2" s="3">
@@ -902,7 +920,7 @@
       <c r="M2" s="3">
         <v>0.56000000000000005</v>
       </c>
-      <c r="N2" s="18">
+      <c r="N2" s="16">
         <v>0.68</v>
       </c>
       <c r="O2" s="5">
@@ -911,10 +929,10 @@
       <c r="P2" s="5">
         <v>0.53120000000000001</v>
       </c>
-      <c r="Q2" s="18">
+      <c r="Q2" s="16">
         <v>0.55000000000000004</v>
       </c>
-      <c r="R2" s="13">
+      <c r="R2" s="11">
         <v>1.7</v>
       </c>
       <c r="S2" s="5">
@@ -933,7 +951,7 @@
         <v>0.51427999999999996</v>
       </c>
     </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -952,34 +970,34 @@
       <c r="F3" s="3">
         <v>0.55000000000000004</v>
       </c>
-      <c r="G3" s="13">
+      <c r="G3" s="11">
         <v>1.04</v>
       </c>
-      <c r="H3" s="13">
+      <c r="H3" s="11">
         <v>1.2</v>
       </c>
-      <c r="I3" s="13">
+      <c r="I3" s="11">
         <v>0.8</v>
       </c>
-      <c r="J3" s="13">
+      <c r="J3" s="11">
         <v>0.82</v>
       </c>
-      <c r="K3" s="13">
+      <c r="K3" s="11">
         <v>2</v>
       </c>
       <c r="L3" s="3">
         <v>0.3</v>
       </c>
-      <c r="M3" s="13">
+      <c r="M3" s="11">
         <v>1</v>
       </c>
       <c r="N3" s="3">
         <v>0.3</v>
       </c>
-      <c r="O3" s="14">
+      <c r="O3" s="12">
         <v>1.0427999999999999</v>
       </c>
-      <c r="P3" s="13">
+      <c r="P3" s="11">
         <v>1.1499999999999999</v>
       </c>
       <c r="Q3" s="5">
@@ -997,30 +1015,30 @@
       <c r="U3" s="3">
         <v>0.6</v>
       </c>
-      <c r="V3" s="13">
+      <c r="V3" s="11">
         <v>1.1399999999999999</v>
       </c>
       <c r="W3" s="3">
         <v>0.6</v>
       </c>
     </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="9">
+      <c r="B4" s="7">
         <v>0.77500000000000002</v>
       </c>
-      <c r="C4" s="10">
+      <c r="C4" s="8">
         <v>0.9</v>
       </c>
-      <c r="D4" s="13">
+      <c r="D4" s="11">
         <v>0.9</v>
       </c>
-      <c r="E4" s="13">
+      <c r="E4" s="11">
         <v>1</v>
       </c>
-      <c r="F4" s="14">
+      <c r="F4" s="12">
         <v>0.97499999999999998</v>
       </c>
       <c r="G4" s="3">
@@ -1038,13 +1056,13 @@
       <c r="K4" s="3">
         <v>0.3</v>
       </c>
-      <c r="L4" s="14">
+      <c r="L4" s="12">
         <v>0.875</v>
       </c>
       <c r="M4" s="3">
         <v>0.55000000000000004</v>
       </c>
-      <c r="N4" s="18">
+      <c r="N4" s="16">
         <v>0.66</v>
       </c>
       <c r="O4" s="5">
@@ -1056,26 +1074,26 @@
       <c r="Q4" s="3">
         <v>0.75</v>
       </c>
-      <c r="R4" s="13">
+      <c r="R4" s="11">
         <v>1.4</v>
       </c>
-      <c r="S4" s="18">
+      <c r="S4" s="16">
         <v>0.5</v>
       </c>
-      <c r="T4" s="14">
+      <c r="T4" s="12">
         <v>1.266</v>
       </c>
-      <c r="U4" s="13">
+      <c r="U4" s="11">
         <v>1.05</v>
       </c>
       <c r="V4" s="5">
         <v>0.52500000000000002</v>
       </c>
-      <c r="W4" s="13">
+      <c r="W4" s="11">
         <v>1.05</v>
       </c>
     </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
@@ -1094,19 +1112,19 @@
       <c r="F5" s="3">
         <v>0.3</v>
       </c>
-      <c r="G5" s="13">
+      <c r="G5" s="11">
         <v>1.04</v>
       </c>
-      <c r="H5" s="14">
+      <c r="H5" s="12">
         <v>1.425</v>
       </c>
-      <c r="I5" s="13">
+      <c r="I5" s="11">
         <v>0.8</v>
       </c>
-      <c r="J5" s="13">
+      <c r="J5" s="11">
         <v>0.82</v>
       </c>
-      <c r="K5" s="13">
+      <c r="K5" s="11">
         <v>1.6</v>
       </c>
       <c r="L5" s="3">
@@ -1115,13 +1133,13 @@
       <c r="M5" s="3">
         <v>0.53</v>
       </c>
-      <c r="N5" s="15">
+      <c r="N5" s="13">
         <v>0.9</v>
       </c>
-      <c r="O5" s="14">
+      <c r="O5" s="12">
         <v>0.94279999999999997</v>
       </c>
-      <c r="P5" s="13">
+      <c r="P5" s="11">
         <v>1.05</v>
       </c>
       <c r="Q5" s="3">
@@ -1139,27 +1157,27 @@
       <c r="U5" s="3">
         <v>0.3</v>
       </c>
-      <c r="V5" s="13">
+      <c r="V5" s="11">
         <v>1.1399999999999999</v>
       </c>
       <c r="W5" s="5">
         <v>0.55713999999999997</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="9">
+      <c r="B6" s="7">
         <v>0.77500000000000002</v>
       </c>
-      <c r="C6" s="11">
+      <c r="C6" s="9">
         <v>0.56000000000000005</v>
       </c>
       <c r="D6" s="5">
         <v>0.56669999999999998</v>
       </c>
-      <c r="E6" s="13">
+      <c r="E6" s="11">
         <v>1</v>
       </c>
       <c r="F6" s="3">
@@ -1174,37 +1192,37 @@
       <c r="I6" s="3">
         <v>0.3</v>
       </c>
-      <c r="J6" s="13">
+      <c r="J6" s="11">
         <v>1.1399999999999999</v>
       </c>
       <c r="K6" s="3">
         <v>0.3</v>
       </c>
-      <c r="L6" s="14">
+      <c r="L6" s="12">
         <v>0.875</v>
       </c>
-      <c r="M6" s="13">
+      <c r="M6" s="11">
         <v>0.9</v>
       </c>
       <c r="N6" s="3">
         <v>0.3</v>
       </c>
-      <c r="O6" s="14">
+      <c r="O6" s="12">
         <v>0.93300000000000005</v>
       </c>
       <c r="P6" s="3">
         <v>0.6</v>
       </c>
-      <c r="Q6" s="19">
+      <c r="Q6" s="17">
         <v>0.5444</v>
       </c>
-      <c r="R6" s="13">
+      <c r="R6" s="11">
         <v>1.4</v>
       </c>
-      <c r="S6" s="18">
+      <c r="S6" s="16">
         <v>0.5</v>
       </c>
-      <c r="T6" s="14">
+      <c r="T6" s="12">
         <v>1.1659999999999999</v>
       </c>
       <c r="U6" s="3">
@@ -1217,41 +1235,41 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C7" s="3">
         <v>0.3</v>
       </c>
-      <c r="D7" s="13">
+      <c r="D7" s="11">
         <v>0.9</v>
       </c>
       <c r="E7" s="3">
         <v>0.3</v>
       </c>
-      <c r="F7" s="14">
+      <c r="F7" s="12">
         <v>0.77500000000000002</v>
       </c>
-      <c r="H7" s="13">
+      <c r="H7" s="11">
         <v>1.2</v>
       </c>
       <c r="J7" s="3">
         <v>0.3</v>
       </c>
-      <c r="K7" s="13">
+      <c r="K7" s="11">
         <v>1.6</v>
       </c>
-      <c r="L7" s="13">
+      <c r="L7" s="11">
         <v>1</v>
       </c>
       <c r="M7" s="3">
         <v>0.6</v>
       </c>
-      <c r="N7" s="18">
+      <c r="N7" s="16">
         <v>0.68</v>
       </c>
-      <c r="P7" s="13">
+      <c r="P7" s="11">
         <v>1.05</v>
       </c>
       <c r="Q7" s="5">
@@ -1266,17 +1284,17 @@
       <c r="T7" s="3">
         <v>0.3</v>
       </c>
-      <c r="U7" s="14">
+      <c r="U7" s="12">
         <v>0.76600000000000001</v>
       </c>
       <c r="V7" s="3">
         <v>0.55000000000000004</v>
       </c>
-      <c r="W7" s="13">
+      <c r="W7" s="11">
         <v>1.05</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
@@ -1295,7 +1313,7 @@
       <c r="H8" s="3">
         <v>0.3</v>
       </c>
-      <c r="J8" s="13">
+      <c r="J8" s="11">
         <v>1.1399999999999999</v>
       </c>
       <c r="K8" s="3">
@@ -1304,54 +1322,54 @@
       <c r="M8" s="5">
         <v>0.57499999999999996</v>
       </c>
-      <c r="N8" s="15">
+      <c r="N8" s="13">
         <v>0.92</v>
       </c>
-      <c r="Q8" s="17">
+      <c r="Q8" s="15">
         <v>0.77500000000000002</v>
       </c>
-      <c r="R8" s="13">
+      <c r="R8" s="11">
         <v>1.4</v>
       </c>
-      <c r="S8" s="20">
+      <c r="S8" s="13">
         <v>1.4</v>
       </c>
-      <c r="T8" s="14">
+      <c r="T8" s="12">
         <v>1.1659999999999999</v>
       </c>
       <c r="U8" s="3">
         <v>0.6</v>
       </c>
-      <c r="V8" s="14">
+      <c r="V8" s="12">
         <v>1.266</v>
       </c>
-      <c r="W8" s="15">
+      <c r="W8" s="13">
         <v>1.6</v>
       </c>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="10">
+      <c r="C9" s="8">
         <v>0.8</v>
       </c>
-      <c r="D9" s="13">
+      <c r="D9" s="11">
         <v>0.95</v>
       </c>
-      <c r="F9" s="14">
+      <c r="F9" s="12">
         <v>0.77500000000000002</v>
       </c>
-      <c r="H9" s="13">
+      <c r="H9" s="11">
         <v>1.2</v>
       </c>
-      <c r="J9" s="13">
+      <c r="J9" s="11">
         <v>0.82</v>
       </c>
-      <c r="K9" s="13">
+      <c r="K9" s="11">
         <v>1.6</v>
       </c>
-      <c r="M9" s="13">
+      <c r="M9" s="11">
         <v>0.9</v>
       </c>
       <c r="R9" s="3">
@@ -1367,14 +1385,14 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C10" s="8">
+      <c r="C10" s="15">
         <v>0.56669999999999998</v>
       </c>
-      <c r="D10" s="13">
+      <c r="D10" s="11">
         <v>1.2</v>
       </c>
       <c r="H10" s="3">
@@ -1383,26 +1401,26 @@
       <c r="K10" s="3">
         <v>0.3</v>
       </c>
-      <c r="U10" s="13">
+      <c r="U10" s="11">
         <v>0.85</v>
       </c>
-      <c r="W10" s="13">
+      <c r="W10" s="11">
         <v>1.1399999999999999</v>
       </c>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="K11" s="13">
+      <c r="K11" s="11">
         <v>1.6</v>
       </c>
-      <c r="U11" s="15">
+      <c r="U11" s="13">
         <v>0.74</v>
       </c>
       <c r="W11" s="3"/>
     </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>77</v>
       </c>
@@ -1410,57 +1428,57 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="K13" s="13">
+      <c r="K13" s="11">
         <v>1.6</v>
       </c>
     </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="15" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="16" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="17" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="B17" s="6"/>
-      <c r="C17" s="12"/>
-      <c r="D17" s="6"/>
-      <c r="E17" s="6"/>
-      <c r="F17" s="6"/>
-      <c r="G17" s="6"/>
-      <c r="H17" s="13"/>
-      <c r="I17" s="6"/>
-      <c r="J17" s="6"/>
-      <c r="K17" s="6"/>
-      <c r="L17" s="6"/>
-      <c r="M17" s="6"/>
-      <c r="N17" s="16"/>
-      <c r="O17" s="6"/>
-      <c r="P17" s="6"/>
-      <c r="Q17" s="16"/>
-      <c r="R17" s="6"/>
-      <c r="S17" s="16"/>
-      <c r="T17" s="6"/>
-      <c r="U17" s="7"/>
-      <c r="V17" s="6"/>
-      <c r="W17" s="7"/>
-    </row>
-    <row r="18" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="18"/>
+      <c r="C17" s="19"/>
+      <c r="D17" s="18"/>
+      <c r="E17" s="18"/>
+      <c r="F17" s="18"/>
+      <c r="G17" s="18"/>
+      <c r="H17" s="18"/>
+      <c r="I17" s="18"/>
+      <c r="J17" s="18"/>
+      <c r="K17" s="18"/>
+      <c r="L17" s="18"/>
+      <c r="M17" s="18"/>
+      <c r="N17" s="20"/>
+      <c r="O17" s="18"/>
+      <c r="P17" s="18"/>
+      <c r="Q17" s="20"/>
+      <c r="R17" s="18"/>
+      <c r="S17" s="20"/>
+      <c r="T17" s="18"/>
+      <c r="U17" s="19"/>
+      <c r="V17" s="18"/>
+      <c r="W17" s="19"/>
+    </row>
+    <row r="18" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B18"/>
       <c r="C18"/>
       <c r="D18"/>
@@ -1470,9 +1488,12 @@
       <c r="H18"/>
       <c r="I18"/>
       <c r="J18"/>
+      <c r="K18" s="2"/>
+      <c r="L18" s="2"/>
+      <c r="M18"/>
       <c r="W18"/>
     </row>
-    <row r="19" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>11</v>
       </c>
@@ -1488,7 +1509,7 @@
       <c r="I19"/>
       <c r="J19"/>
     </row>
-    <row r="20" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>12</v>
       </c>
@@ -1502,7 +1523,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="21" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
         <v>14</v>
       </c>
@@ -1512,13 +1533,13 @@
       <c r="C21" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="D21" s="6"/>
+      <c r="D21" s="18"/>
       <c r="F21" s="6"/>
       <c r="G21" s="1" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="22" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
         <v>16</v>
       </c>
@@ -1528,13 +1549,13 @@
       <c r="C22" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="D22" s="12"/>
-      <c r="F22" s="12"/>
+      <c r="D22" s="19"/>
+      <c r="F22" s="10"/>
       <c r="G22" s="1" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="23" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
         <v>17</v>
       </c>
@@ -1544,13 +1565,13 @@
       <c r="C23" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="D23" s="6"/>
-      <c r="F23" s="16"/>
+      <c r="D23" s="18"/>
+      <c r="F23" s="14"/>
       <c r="G23" s="1" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="24" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
         <v>20</v>
       </c>
@@ -1560,9 +1581,9 @@
       <c r="C24" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="D24" s="6"/>
-    </row>
-    <row r="25" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="D24" s="18"/>
+    </row>
+    <row r="25" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
         <v>22</v>
       </c>
@@ -1572,7 +1593,7 @@
       <c r="C25" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="D25" s="6"/>
+      <c r="D25" s="18"/>
       <c r="E25" s="1"/>
       <c r="F25" s="1" t="s">
         <v>91</v>
@@ -1581,8 +1602,10 @@
       <c r="H25" s="1"/>
       <c r="I25" s="1"/>
       <c r="J25" s="1"/>
-    </row>
-    <row r="26" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="K25" s="2"/>
+      <c r="L25" s="2"/>
+    </row>
+    <row r="26" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
         <v>24</v>
       </c>
@@ -1592,7 +1615,7 @@
       <c r="C26" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="D26" s="6"/>
+      <c r="D26" s="18"/>
       <c r="E26" s="1"/>
       <c r="F26" s="2" t="s">
         <v>92</v>
@@ -1601,8 +1624,10 @@
       <c r="H26" s="1"/>
       <c r="I26" s="1"/>
       <c r="J26" s="1"/>
-    </row>
-    <row r="27" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="K26" s="2"/>
+      <c r="L26" s="2"/>
+    </row>
+    <row r="27" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
         <v>26</v>
       </c>
@@ -1612,7 +1637,7 @@
       <c r="C27" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="D27" s="6"/>
+      <c r="D27" s="18"/>
       <c r="F27" s="2" t="s">
         <v>93</v>
       </c>
@@ -1623,7 +1648,7 @@
       <c r="K27" s="2"/>
       <c r="L27" s="2"/>
     </row>
-    <row r="28" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
         <v>28</v>
       </c>
@@ -1633,7 +1658,7 @@
       <c r="C28" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="D28" s="6"/>
+      <c r="D28" s="18"/>
       <c r="F28" s="2" t="s">
         <v>94</v>
       </c>
@@ -1644,7 +1669,7 @@
       <c r="K28" s="2"/>
       <c r="L28" s="2"/>
     </row>
-    <row r="29" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A29" s="2" t="s">
         <v>28</v>
       </c>
@@ -1654,7 +1679,7 @@
       <c r="C29" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="D29" s="6"/>
+      <c r="D29" s="18"/>
       <c r="F29" s="2" t="s">
         <v>95</v>
       </c>
@@ -1665,7 +1690,7 @@
       <c r="K29" s="2"/>
       <c r="L29" s="2"/>
     </row>
-    <row r="30" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A30" s="2" t="s">
         <v>31</v>
       </c>
@@ -1675,7 +1700,7 @@
       <c r="C30" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="D30" s="6"/>
+      <c r="D30" s="18"/>
       <c r="E30"/>
       <c r="F30" s="2" t="s">
         <v>96</v>
@@ -1687,7 +1712,7 @@
       <c r="K30" s="2"/>
       <c r="L30" s="2"/>
     </row>
-    <row r="31" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A31" s="2" t="s">
         <v>65</v>
       </c>
@@ -1697,7 +1722,7 @@
       <c r="C31" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="D31" s="6"/>
+      <c r="D31" s="18"/>
       <c r="E31"/>
       <c r="F31" s="2" t="s">
         <v>99</v>
@@ -1709,7 +1734,7 @@
       <c r="K31" s="2"/>
       <c r="L31" s="2"/>
     </row>
-    <row r="32" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A32" s="2" t="s">
         <v>68</v>
       </c>
@@ -1719,7 +1744,7 @@
       <c r="C32" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="D32" s="6"/>
+      <c r="D32" s="18"/>
       <c r="F32" s="2" t="s">
         <v>97</v>
       </c>
@@ -1730,7 +1755,7 @@
       <c r="K32" s="2"/>
       <c r="L32" s="2"/>
     </row>
-    <row r="33" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A33" s="2" t="s">
         <v>33</v>
       </c>
@@ -1740,7 +1765,7 @@
       <c r="C33" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="D33" s="16"/>
+      <c r="D33" s="20"/>
       <c r="F33" s="2"/>
       <c r="G33" s="2"/>
       <c r="H33" s="2"/>
@@ -1749,7 +1774,7 @@
       <c r="K33" s="2"/>
       <c r="L33" s="2"/>
     </row>
-    <row r="34" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A34" s="2" t="s">
         <v>35</v>
       </c>
@@ -1759,16 +1784,18 @@
       <c r="C34" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="D34" s="6"/>
-      <c r="F34" s="2"/>
+      <c r="D34" s="18"/>
+      <c r="F34" s="1" t="s">
+        <v>84</v>
+      </c>
       <c r="G34" s="2"/>
-      <c r="H34" s="2"/>
+      <c r="H34"/>
       <c r="I34" s="2"/>
       <c r="J34" s="2"/>
       <c r="K34" s="2"/>
       <c r="L34" s="2"/>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A35" s="2" t="s">
         <v>37</v>
       </c>
@@ -1778,17 +1805,16 @@
       <c r="C35" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="D35" s="6"/>
+      <c r="D35" s="18"/>
       <c r="E35" s="1"/>
-      <c r="F35" s="2"/>
+      <c r="F35" s="1"/>
       <c r="G35" s="2"/>
-      <c r="H35" s="2"/>
       <c r="I35" s="2"/>
       <c r="J35" s="2"/>
       <c r="K35" s="2"/>
       <c r="L35" s="2"/>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A36" s="2" t="s">
         <v>39</v>
       </c>
@@ -1798,17 +1824,18 @@
       <c r="C36" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="D36" s="16"/>
+      <c r="D36" s="20"/>
       <c r="E36" s="1"/>
-      <c r="F36" s="2"/>
-      <c r="G36" s="2"/>
-      <c r="H36" s="2"/>
+      <c r="F36" s="18"/>
+      <c r="G36" s="2" t="s">
+        <v>83</v>
+      </c>
       <c r="I36" s="2"/>
       <c r="J36" s="2"/>
       <c r="K36" s="2"/>
       <c r="L36" s="2"/>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A37" s="2" t="s">
         <v>41</v>
       </c>
@@ -1818,17 +1845,18 @@
       <c r="C37" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="D37" s="6"/>
+      <c r="D37" s="18"/>
       <c r="E37" s="1"/>
-      <c r="F37" s="2"/>
-      <c r="G37" s="2"/>
-      <c r="H37" s="2"/>
+      <c r="F37" s="19"/>
+      <c r="G37" s="2" t="s">
+        <v>89</v>
+      </c>
       <c r="I37" s="2"/>
       <c r="J37" s="2"/>
       <c r="K37" s="2"/>
       <c r="L37" s="2"/>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A38" s="2" t="s">
         <v>41</v>
       </c>
@@ -1838,17 +1866,18 @@
       <c r="C38" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="D38" s="16"/>
+      <c r="D38" s="20"/>
       <c r="E38" s="1"/>
-      <c r="F38" s="2"/>
-      <c r="G38" s="2"/>
-      <c r="H38" s="2"/>
+      <c r="F38" s="20"/>
+      <c r="G38" s="2" t="s">
+        <v>90</v>
+      </c>
       <c r="I38" s="2"/>
       <c r="J38" s="2"/>
       <c r="K38" s="2"/>
       <c r="L38" s="2"/>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A39" s="2" t="s">
         <v>44</v>
       </c>
@@ -1858,7 +1887,7 @@
       <c r="C39" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="D39" s="6"/>
+      <c r="D39" s="18"/>
       <c r="E39" s="1"/>
       <c r="F39" s="2"/>
       <c r="G39" s="2"/>
@@ -1868,7 +1897,7 @@
       <c r="K39" s="2"/>
       <c r="L39" s="2"/>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A40" s="2" t="s">
         <v>46</v>
       </c>
@@ -1878,7 +1907,7 @@
       <c r="C40" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="D40" s="12"/>
+      <c r="D40" s="19"/>
       <c r="F40" s="2"/>
       <c r="G40" s="2"/>
       <c r="H40" s="2"/>
@@ -1887,7 +1916,7 @@
       <c r="K40" s="2"/>
       <c r="L40" s="2"/>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A41" s="2" t="s">
         <v>68</v>
       </c>
@@ -1897,7 +1926,7 @@
       <c r="C41" t="s">
         <v>72</v>
       </c>
-      <c r="D41" s="6"/>
+      <c r="D41" s="18"/>
       <c r="F41" s="2"/>
       <c r="G41" s="2"/>
       <c r="H41" s="2"/>
@@ -1906,7 +1935,7 @@
       <c r="K41" s="2"/>
       <c r="L41" s="2"/>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A42" s="2" t="s">
         <v>74</v>
       </c>
@@ -1916,108 +1945,69 @@
       <c r="C42" t="s">
         <v>76</v>
       </c>
-      <c r="D42" s="12"/>
-    </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A43" s="2"/>
-      <c r="B43" s="2"/>
-    </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A44" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="B44" s="2"/>
-    </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B45" s="2"/>
-    </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A46" s="6"/>
-      <c r="B46" s="2" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A47" s="12"/>
-      <c r="B47" s="2" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A48" s="16"/>
-      <c r="B48" s="2" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A49" s="2"/>
-      <c r="B49" s="2"/>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A50" s="2"/>
-      <c r="B50" s="2"/>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D42" s="19"/>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A51" s="2"/>
       <c r="B51" s="2"/>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A52" s="2"/>
       <c r="B52" s="2"/>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A53" s="2"/>
       <c r="B53" s="2"/>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A54" s="2"/>
       <c r="B54" s="2"/>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A55" s="2"/>
       <c r="B55" s="2"/>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A56" s="2"/>
       <c r="B56" s="2"/>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A57" s="2"/>
       <c r="B57" s="2"/>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A58" s="2"/>
       <c r="B58" s="2"/>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A59" s="2"/>
       <c r="B59" s="2"/>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A60" s="2"/>
       <c r="B60" s="2"/>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A61" s="2"/>
       <c r="B61" s="2"/>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A62" s="2"/>
       <c r="B62" s="2"/>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A63" s="2"/>
       <c r="B63" s="2"/>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A64" s="2"/>
       <c r="B64" s="2"/>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A65" s="2"/>
       <c r="B65" s="2"/>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A66" s="2"/>
       <c r="B66" s="2"/>
     </row>

--- a/Testes.xlsx
+++ b/Testes.xlsx
@@ -5,15 +5,16 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\rpp_mer\FeatureExtractionSystem\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Red\Desktop\Investigacao2020\FeatureExtractionSystem\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3D533B9-3B55-42A7-984C-5462BF917450}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C5E272B-2FD4-4A26-B1BA-6D31FFC2E1E3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{4C8C43D5-2640-471F-9E2F-B63DD0724C75}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{4C8C43D5-2640-471F-9E2F-B63DD0724C75}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -480,7 +481,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -778,38 +779,38 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CBC598BB-8A8F-49D8-9996-46F48A2FBFB9}">
   <dimension ref="A1:W66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="P14" sqref="P14"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="28.88671875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="27.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="27.28515625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.88671875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.44140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="5.6640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="25.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="5.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="25.85546875" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="14" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="21.6640625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="26.6640625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="5.6640625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="21.5546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="21.7109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="26.7109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="5.7109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="21.5703125" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="10" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="17.7109375" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="9" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="12.88671875" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="11.5546875" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="8.109375" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="7.109375" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="7.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -880,7 +881,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -951,7 +952,7 @@
         <v>0.51427999999999996</v>
       </c>
     </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -1022,7 +1023,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
@@ -1093,7 +1094,7 @@
         <v>1.05</v>
       </c>
     </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
@@ -1164,7 +1165,7 @@
         <v>0.55713999999999997</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
@@ -1235,7 +1236,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
@@ -1294,7 +1295,7 @@
         <v>1.05</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
@@ -1347,7 +1348,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>8</v>
       </c>
@@ -1385,7 +1386,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>9</v>
       </c>
@@ -1408,7 +1409,7 @@
         <v>1.1399999999999999</v>
       </c>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>10</v>
       </c>
@@ -1420,7 +1421,7 @@
       </c>
       <c r="W11" s="3"/>
     </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>77</v>
       </c>
@@ -1428,7 +1429,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>78</v>
       </c>
@@ -1436,22 +1437,22 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="15" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="16" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="17" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>73</v>
       </c>
@@ -1478,7 +1479,7 @@
       <c r="V17" s="18"/>
       <c r="W17" s="19"/>
     </row>
-    <row r="18" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B18"/>
       <c r="C18"/>
       <c r="D18"/>
@@ -1493,7 +1494,7 @@
       <c r="M18"/>
       <c r="W18"/>
     </row>
-    <row r="19" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>11</v>
       </c>
@@ -1509,7 +1510,7 @@
       <c r="I19"/>
       <c r="J19"/>
     </row>
-    <row r="20" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>12</v>
       </c>
@@ -1523,7 +1524,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="21" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>14</v>
       </c>
@@ -1539,7 +1540,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="22" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>16</v>
       </c>
@@ -1555,7 +1556,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="23" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>17</v>
       </c>
@@ -1571,7 +1572,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="24" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>20</v>
       </c>
@@ -1583,7 +1584,7 @@
       </c>
       <c r="D24" s="18"/>
     </row>
-    <row r="25" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>22</v>
       </c>
@@ -1605,7 +1606,7 @@
       <c r="K25" s="2"/>
       <c r="L25" s="2"/>
     </row>
-    <row r="26" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>24</v>
       </c>
@@ -1627,7 +1628,7 @@
       <c r="K26" s="2"/>
       <c r="L26" s="2"/>
     </row>
-    <row r="27" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>26</v>
       </c>
@@ -1648,7 +1649,7 @@
       <c r="K27" s="2"/>
       <c r="L27" s="2"/>
     </row>
-    <row r="28" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
         <v>28</v>
       </c>
@@ -1669,7 +1670,7 @@
       <c r="K28" s="2"/>
       <c r="L28" s="2"/>
     </row>
-    <row r="29" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
         <v>28</v>
       </c>
@@ -1690,7 +1691,7 @@
       <c r="K29" s="2"/>
       <c r="L29" s="2"/>
     </row>
-    <row r="30" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
         <v>31</v>
       </c>
@@ -1712,7 +1713,7 @@
       <c r="K30" s="2"/>
       <c r="L30" s="2"/>
     </row>
-    <row r="31" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
         <v>65</v>
       </c>
@@ -1734,7 +1735,7 @@
       <c r="K31" s="2"/>
       <c r="L31" s="2"/>
     </row>
-    <row r="32" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
         <v>68</v>
       </c>
@@ -1755,7 +1756,7 @@
       <c r="K32" s="2"/>
       <c r="L32" s="2"/>
     </row>
-    <row r="33" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
         <v>33</v>
       </c>
@@ -1774,7 +1775,7 @@
       <c r="K33" s="2"/>
       <c r="L33" s="2"/>
     </row>
-    <row r="34" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
         <v>35</v>
       </c>
@@ -1795,7 +1796,7 @@
       <c r="K34" s="2"/>
       <c r="L34" s="2"/>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
         <v>37</v>
       </c>
@@ -1814,7 +1815,7 @@
       <c r="K35" s="2"/>
       <c r="L35" s="2"/>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
         <v>39</v>
       </c>
@@ -1835,7 +1836,7 @@
       <c r="K36" s="2"/>
       <c r="L36" s="2"/>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
         <v>41</v>
       </c>
@@ -1856,7 +1857,7 @@
       <c r="K37" s="2"/>
       <c r="L37" s="2"/>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
         <v>41</v>
       </c>
@@ -1877,7 +1878,7 @@
       <c r="K38" s="2"/>
       <c r="L38" s="2"/>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
         <v>44</v>
       </c>
@@ -1897,7 +1898,7 @@
       <c r="K39" s="2"/>
       <c r="L39" s="2"/>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
         <v>46</v>
       </c>
@@ -1916,7 +1917,7 @@
       <c r="K40" s="2"/>
       <c r="L40" s="2"/>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
         <v>68</v>
       </c>
@@ -1935,7 +1936,7 @@
       <c r="K41" s="2"/>
       <c r="L41" s="2"/>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
         <v>74</v>
       </c>
@@ -1947,67 +1948,67 @@
       </c>
       <c r="D42" s="19"/>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" s="2"/>
       <c r="B51" s="2"/>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" s="2"/>
       <c r="B52" s="2"/>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" s="2"/>
       <c r="B53" s="2"/>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" s="2"/>
       <c r="B54" s="2"/>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" s="2"/>
       <c r="B55" s="2"/>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" s="2"/>
       <c r="B56" s="2"/>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57" s="2"/>
       <c r="B57" s="2"/>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58" s="2"/>
       <c r="B58" s="2"/>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59" s="2"/>
       <c r="B59" s="2"/>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60" s="2"/>
       <c r="B60" s="2"/>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61" s="2"/>
       <c r="B61" s="2"/>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62" s="2"/>
       <c r="B62" s="2"/>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63" s="2"/>
       <c r="B63" s="2"/>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64" s="2"/>
       <c r="B64" s="2"/>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65" s="2"/>
       <c r="B65" s="2"/>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66" s="2"/>
       <c r="B66" s="2"/>
     </row>
@@ -2015,4 +2016,18 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0CABD35-5F0D-42F1-AC4C-08F139F2F631}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J35" sqref="J35"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>